--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,61 +52,58 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
-    <t>awesome</t>
+    <t>pleased</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>perfect</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wife</t>
   </si>
   <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>great</t>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cooke</t>
+    <t>cheese</t>
   </si>
   <si>
     <t>cake</t>
@@ -118,34 +115,31 @@
     <t>ever</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>years</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
-    <t>years</t>
+    <t>easy</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>easy</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>tea</t>
   </si>
   <si>
     <t>good</t>
@@ -154,15 +148,6 @@
     <t>pan</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
@@ -172,12 +157,12 @@
     <t>works</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>little</t>
-  </si>
-  <si>
     <t>recommend</t>
   </si>
   <si>
@@ -191,6 +176,9 @@
   </si>
   <si>
     <t>one</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>positive</t>
@@ -551,7 +539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,7 +550,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -620,13 +608,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2868217054263566</v>
+        <v>0.248062015503876</v>
       </c>
       <c r="C3">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -638,7 +626,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
@@ -670,13 +658,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.8984375</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -688,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -696,13 +684,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.846749226006192</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L5">
-        <v>547</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>547</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -714,7 +702,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>99</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -722,13 +710,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8405797101449275</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L6">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -740,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -748,13 +736,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.8043478260869565</v>
+        <v>0.8575851393188855</v>
       </c>
       <c r="L7">
-        <v>37</v>
+        <v>554</v>
       </c>
       <c r="M7">
-        <v>37</v>
+        <v>554</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -766,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -774,13 +762,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.7272727272727273</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L8">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="M8">
-        <v>168</v>
+        <v>58</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -792,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -800,13 +788,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.7142857142857143</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>166</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -818,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -826,13 +814,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.7111111111111111</v>
+        <v>0.6677966101694915</v>
       </c>
       <c r="L10">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="M10">
-        <v>32</v>
+        <v>197</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -844,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -852,13 +840,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.6986301369863014</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L11">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -870,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -878,13 +866,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6818181818181818</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -896,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -904,13 +892,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.676056338028169</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L13">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M13">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -922,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -930,13 +918,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6542372881355932</v>
+        <v>0.6514285714285715</v>
       </c>
       <c r="L14">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -948,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -956,13 +944,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6470588235294118</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L15">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -974,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1008,13 +996,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="L17">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1026,7 +1014,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1034,13 +1022,13 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.6114285714285714</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L18">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="M18">
-        <v>107</v>
+        <v>40</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1052,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1060,13 +1048,13 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.59375</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1078,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1086,13 +1074,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.5857142857142857</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L20">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="M20">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1104,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1112,13 +1100,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5694444444444444</v>
+        <v>0.5230769230769231</v>
       </c>
       <c r="L21">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="M21">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1138,13 +1126,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.543859649122807</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L22">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M22">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1156,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1164,13 +1152,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.5299145299145299</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L23">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="M23">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1182,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1190,13 +1178,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.5096153846153846</v>
+        <v>0.4790419161676647</v>
       </c>
       <c r="L24">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="M24">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1208,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1216,13 +1204,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.4910179640718563</v>
+        <v>0.4135338345864661</v>
       </c>
       <c r="L25">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="M25">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1234,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1242,13 +1230,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.481203007518797</v>
+        <v>0.41</v>
       </c>
       <c r="L26">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="M26">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1260,7 +1248,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1268,13 +1256,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.4761904761904762</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L27">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="M27">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1286,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1294,13 +1282,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.46</v>
+        <v>0.3504901960784313</v>
       </c>
       <c r="L28">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="M28">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1312,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>54</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1320,13 +1308,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.4578313253012048</v>
+        <v>0.3035019455252918</v>
       </c>
       <c r="L29">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="M29">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1338,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>45</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1346,13 +1334,13 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.3947368421052632</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="L30">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M30">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1364,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>46</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1372,13 +1360,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.3915662650602409</v>
+        <v>0.273972602739726</v>
       </c>
       <c r="L31">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="M31">
-        <v>65</v>
+        <v>200</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1390,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>101</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1398,13 +1386,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.357843137254902</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="L32">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="M32">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1416,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>262</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1424,13 +1412,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.3233082706766917</v>
+        <v>0.2535885167464115</v>
       </c>
       <c r="L33">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="M33">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1442,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>90</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1450,13 +1438,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.3073929961089494</v>
+        <v>0.2446043165467626</v>
       </c>
       <c r="L34">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="M34">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1468,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>178</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1476,13 +1464,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.2702702702702703</v>
+        <v>0.2346609257265877</v>
       </c>
       <c r="L35">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="M35">
-        <v>30</v>
+        <v>218</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1494,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>81</v>
+        <v>711</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1502,13 +1490,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.2561643835616438</v>
+        <v>0.2006269592476489</v>
       </c>
       <c r="L36">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="M36">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1520,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>543</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1528,13 +1516,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.232508073196986</v>
+        <v>0.1920529801324503</v>
       </c>
       <c r="L37">
-        <v>216</v>
+        <v>29</v>
       </c>
       <c r="M37">
-        <v>216</v>
+        <v>29</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1546,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>713</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1554,13 +1542,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.219435736677116</v>
+        <v>0.1636828644501279</v>
       </c>
       <c r="L38">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="M38">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1572,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>249</v>
+        <v>654</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1580,13 +1568,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.2158273381294964</v>
+        <v>0.1629139072847682</v>
       </c>
       <c r="L39">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="M39">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1598,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>109</v>
+        <v>632</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1606,13 +1594,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.2105263157894737</v>
+        <v>0.1099656357388316</v>
       </c>
       <c r="L40">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M40">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1624,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>165</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1632,13 +1620,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.1946308724832215</v>
+        <v>0.1070559610705596</v>
       </c>
       <c r="L41">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="M41">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1650,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>120</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1658,13 +1646,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.1920529801324503</v>
+        <v>0.1024258760107817</v>
       </c>
       <c r="L42">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M42">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1676,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>122</v>
+        <v>333</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1684,13 +1672,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.1636828644501279</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="L43">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="M43">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1702,7 +1690,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>654</v>
+        <v>395</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1710,13 +1698,13 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.1602649006622517</v>
+        <v>0.07456140350877193</v>
       </c>
       <c r="L44">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="M44">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1728,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>634</v>
+        <v>422</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1736,25 +1724,25 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.121654501216545</v>
+        <v>0.06025824964131994</v>
       </c>
       <c r="L45">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M45">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="N45">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q45">
-        <v>361</v>
+        <v>655</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1762,25 +1750,25 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.1099656357388316</v>
+        <v>0.05228758169934641</v>
       </c>
       <c r="L46">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M46">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>259</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1788,129 +1776,25 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.0945945945945946</v>
+        <v>0.02859618717504333</v>
       </c>
       <c r="L47">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M47">
         <v>36</v>
       </c>
       <c r="N47">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="O47">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P47" t="b">
         <v>1</v>
       </c>
       <c r="Q47">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="48" spans="10:17">
-      <c r="J48" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K48">
-        <v>0.09090909090909091</v>
-      </c>
-      <c r="L48">
-        <v>40</v>
-      </c>
-      <c r="M48">
-        <v>40</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="49" spans="10:17">
-      <c r="J49" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K49">
-        <v>0.07456140350877193</v>
-      </c>
-      <c r="L49">
-        <v>34</v>
-      </c>
-      <c r="M49">
-        <v>34</v>
-      </c>
-      <c r="N49">
-        <v>1</v>
-      </c>
-      <c r="O49">
-        <v>0</v>
-      </c>
-      <c r="P49" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K50">
-        <v>0.07306590257879657</v>
-      </c>
-      <c r="L50">
-        <v>51</v>
-      </c>
-      <c r="M50">
-        <v>51</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="51" spans="10:17">
-      <c r="J51" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K51">
-        <v>0.04944029850746268</v>
-      </c>
-      <c r="L51">
-        <v>53</v>
-      </c>
-      <c r="M51">
-        <v>53</v>
-      </c>
-      <c r="N51">
-        <v>1</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q51">
-        <v>1019</v>
+        <v>1121</v>
       </c>
     </row>
   </sheetData>
